--- a/module2/Theory/Case_study/Câu hỏi audit module 2.xlsx
+++ b/module2/Theory/Case_study/Câu hỏi audit module 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SynologyDrive\Dell5590\Desktop\Module_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Duy Win\Java- Fullstack\Github\C0821G1_NguyenPhucDuy_module2\module2\theory\Case_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593B5ABA-EDD0-421E-AE52-EBBFFF6A9BF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5862EAEC-1546-4609-8C34-0AC4625DF244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF54082F-F906-4D53-832D-B9DADDD63EE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF54082F-F906-4D53-832D-B9DADDD63EE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -223,6 +220,150 @@
   </si>
   <si>
     <t>Một số lưu ý khi dùng try-catch</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming: Hướng đối tượng ( ánh xạ các đối tượng từ thực tế vào trong lập trình</t>
+  </si>
+  <si>
+    <t>Nguyen Phuc Duy C0821G1</t>
+  </si>
+  <si>
+    <t>Java Development kit là bộ công cụ để dev phát triển ứng dụng Java, dùng để compiler .javafile,Java Runtime Enviroment, Java Virtural Machine(thông dịch)</t>
+  </si>
+  <si>
+    <t>Compiler là quá trình dịch từ .java-&gt;.class hay từ ngôn ngữ java  qua byte code ,thông dịch cung cấp môi trường(thông dịch các hệ điều hàng khác nhau) để code java thực thi</t>
+  </si>
+  <si>
+    <t>Vừa biên dịch vừa thông dịch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 kiểu:tham chiếu(string, array và object)nguyên thủy có boolean, số(char và tích phân :float[float, double]Interger[byte, short, int, long]) </t>
+  </si>
+  <si>
+    <t>For - I control thứ tự duyệt , for -each chỉ duyệt từ đầu đến cuối</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cách khai báo 1 mảng tĩnh  bằng dấu ngoặc nhọn, hoặc 1 mảng động bằng từ khóa new </t>
+  </si>
+  <si>
+    <t>Class là 1 khuôn khổ định nghĩa các thuộc tính và hành vi chung cho 1 nhóm đối tượng, object là 1 thể hiện  của class</t>
+  </si>
+  <si>
+    <t>Constructor là 1 method  đặc biệt để khởi tạo đối tượng</t>
+  </si>
+  <si>
+    <t>Encapsulation: Khả năng che dấu đi các thông tin của đối tượng- &gt; chỉ sử dụng các thông tin cần thiết-&gt; bảo vệ trạng thái bên trong của object.  Java: getter and setter , accsessmodifier</t>
+  </si>
+  <si>
+    <t>Tham trị : Lưu tên , địa chỉ giá trị đều bên vùng nhớ stack, tham chiếu lưu tên+ địa chỉ bên stack  còn giá trị lại lưu bên vùng nhớ head</t>
+  </si>
+  <si>
+    <t>Khai báo các thuộc tính và method trực thuộc lớp</t>
+  </si>
+  <si>
+    <t>4 level, 3 key word: private(in class) , default ( in package) . Protected (out package with extends) , public (in project)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inheritance : Cho phép lớp con định nghĩa lại các thuộc tính và method ở lớp cha </t>
+  </si>
+  <si>
+    <t>Những thuộc tính và method của instance , và có accsessmodifier không phải là private, nếu là private thì sử dụng từ khóa super để gọi thuộc tính và overide là method</t>
+  </si>
+  <si>
+    <t>là lớp gốc của tất cả các lớp trong java</t>
+  </si>
+  <si>
+    <t>Polymorphism : khả năng đối tượng có thể thực hiện hành vi theo nhiều cách khác nhau tùy ngữ cảnh, java : overload- overide, casting</t>
+  </si>
+  <si>
+    <t>Overload : xảy ra trong cùng 1 class, cùng tên class, cùng kiểu dữ liệu và khác tham số | overide : xảy ra trong chuỗi kế thừa, cùng tên method, cùng kiểu dữ liệu,Cùng tham số và accsessmodifier ở lớp con &gt;= lớp cha</t>
+  </si>
+  <si>
+    <t>Ep kiểu là chuyển đổi 1 tham chiếu đến đối tượng thuộc loại này thành tham chiếu đến đối tượng thuộc loại khác| 2 kiểu : ngầm định( con -&gt; cha) , Tường minh( cha-&gt; con),</t>
+  </si>
+  <si>
+    <t>Abstraction: Khả năng ẩn dấu đi các chi tiết trong quá trình triển khai, chỉ hiện thị kết  quả hoặc tính năng, tức là user chỉ biết đầu vào và đầu ra |  java thể hiện qua abstract class và interface</t>
+  </si>
+  <si>
+    <t>Array: length không đổi, cùng data type, truy xuất qua index, chỉ có 1 thuộc tính .length || Array list : mảng động kích thước thay đổi được, cùng date type, truy xuất qua index, có nhiều method CRUD hỗ trợ</t>
+  </si>
+  <si>
+    <t>Array list:  lưu trữ theo dạng mảng , truy xuất nhanh(qua index) , thêm , xóa chậm (dịch chuyển phần tư mỗi khi thêm hay xoá) || Linked list : lưu trữ dạng node liên kết, truy xuất chậm(vì phải duyệt từ node đầu đến node cuối) , thêm , xóa nhanh(vì chỉ cần gỡ or thêm node liên kết)</t>
+  </si>
+  <si>
+    <t>Set là list lưu trữ theo dạng key(phần tử) không trùng lặp ,  Hashset (save mã băm- không sort thứ thự chèn) Linkedhashset( sort thứ tự chèn vào) Treeset (sort thứ tự tăng dần)</t>
+  </si>
+  <si>
+    <t>Generic là cơ chế cho phép use kiểu dữ liệu như là tham số</t>
+  </si>
+  <si>
+    <t>Abstract class : sử dụng trong chuỗi kế thừa,  không thể tạo đối tượng nhưng vẫn tạo được constructor, có thể có thuộc tính và hành vi bt, 1 asbtract class con chỉ kế thừa từ 1 class cha khác, interface : can-do, chỉ có hằng số và abstract method, có thể kế thừa được từ nhiều interface cha</t>
+  </si>
+  <si>
+    <t>Local(in block code) , glocal(out block code) , static(in class of class) . Trùng tên biến  thì sử dụng this.</t>
+  </si>
+  <si>
+    <t>Method static chỉ có thể gọi method static khác, có thể gọi thuộc tính,method static bằng Tên class, ko thể sử dụng this  hay super cho static, có thể khởi tạo thuộc tính static thông qua khối static</t>
+  </si>
+  <si>
+    <t>Nên có tối đa 3 if lồng nhau</t>
+  </si>
+  <si>
+    <t>If(&gt;&lt;,=,khác| 1if -&gt; 1 đk|  giá trị trả về -&gt; boolean| đk true-&gt; 1 câu lệnh đc thực thi) swith(=,khác| all case -&gt; 1 đk| giá trị trả về-&gt; String, char, byte, short,int|đk true -&gt; ko có break -&gt; tất cả câu lệnh phía sau đề được thực thi)</t>
+  </si>
+  <si>
+    <t>For biết trước số lần lặp, while k biết trước số lần lặp, do -while muốn lặp ít nhất 1 lần trước</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While khi ko biết phải lặp bao nhiêu lần, do-while -&gt; regex </t>
+  </si>
+  <si>
+    <t>Break  :  out vòng lặp , continue -&gt; bỏ qua các câu lệnh phía sau-&gt; nhảy lên câu lệnh tiếp theo</t>
+  </si>
+  <si>
+    <t>Cùng tên class, không có void và kiểu dữ liệu trả về .overload cùng tên, cùng kiểu dữ liệu khác tham số, constructor ko thể gọi chính nó. Chỉ gọi dc 1 constructor duy nhất, lệnh gọi phải là lệnh đầu tiên</t>
+  </si>
+  <si>
+    <t>Ưu điểm : không cần ép kiểu,phát hiện lỗi ngay thời điểm compiler, tạo ra các lớp tổng quát có thể áp dụng cho nhiều kiểu dữ liệu khác nhau|| Nhược điểm: không thể gọi generic bằng kiểu dữ liệu nguyên thủy, không thể ép kiểu tường minh, không thể instance của kiểu dữ liệu generic</t>
+  </si>
+  <si>
+    <t>Stack :  FILO - vào sau ra trước || push(), pop(),peek()</t>
+  </si>
+  <si>
+    <t>Queue : FIFO - vào đầu ra đầu || PriorityQueue (ưu tiên) , LinkedList(node), ArrayDeque(mảng)</t>
+  </si>
+  <si>
+    <t>add()/offer() , element()/ peek(), remove()/poll()  /// offer -&gt; false | peek,poll -&gt; null</t>
+  </si>
+  <si>
+    <t>Comparable -&gt; compator : so sánh đơn tiêu chí || Comparator -&gt; compare : So sánh nhiều tiêu chí</t>
+  </si>
+  <si>
+    <t>Map list lưu trữ dạng entry (key - value) , Hashtable,  HashMap(save mã băm-  k sort thứ tự - 1 key null), LinkedHashMap(sort entry) , TreeMap(sort tăng dần)</t>
+  </si>
+  <si>
+    <t>Cây nhị phân có tối đa 2 node con, được xây dựng trên 1 node root cha</t>
+  </si>
+  <si>
+    <t>4 cách</t>
+  </si>
+  <si>
+    <t>Là sự kiện bất thường xảy ra trong quá trình thực thi java, nó phá vỡ luồng chương trình , thậm chí gây chết chương trình</t>
+  </si>
+  <si>
+    <t>2 loại: Checked Exception : xảy ra trong quá trình compiler , bắt buộc phải handle ,ex: notfilefound, IO exception || Unchecked Exception: Xảy ra trong quá trình Runtime , Không bắt buộc handle , ex: numberformat,bye zero</t>
+  </si>
+  <si>
+    <t>Error là loại không thể handle , xảy ra trong quá trình Runtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cách, 1. Sử dụng Try/ Catch/Finally , 2 . Sử dụng Throw or Throws </t>
+  </si>
+  <si>
+    <t>Try bắt buộc phải có, catch or finally 1 trong 2 phải có, 1 thời điểm chỉ có 1 catch được thực thi, catch phải sắp xếp exception từ nhỏ tới lớn</t>
+  </si>
+  <si>
+    <t>Item của mảng phải cùng data type: dùng mọi kiểu dữ liệu</t>
   </si>
 </sst>
 </file>
@@ -630,416 +771,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C4EFFE-BBDF-40E0-9D05-F4C9A58CBB04}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="67.44140625" customWidth="1"/>
+    <col min="3" max="3" width="239" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
